--- a/medicine/Enfance/Papa_longues_jambes/Papa_longues_jambes.xlsx
+++ b/medicine/Enfance/Papa_longues_jambes/Papa_longues_jambes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Papa longues jambes ou Papa Faucheux (Daddy-Long-Legs en version originale[1]), est un roman épistolaire de l'écrivaine américaine Jean Webster, publié aux États-Unis en 1912. 
+Papa longues jambes ou Papa Faucheux (Daddy-Long-Legs en version originale), est un roman épistolaire de l'écrivaine américaine Jean Webster, publié aux États-Unis en 1912. 
 En France, il paraît pour la première fois en 1918, puis est souvent réédité chez Hachette sous le titre de Papa Faucheux. En 1981, il est réédité dans une nouvelle traduction et sous un nouveau titre : Papa longues jambes, en référence aux précédentes adaptations filmées.
 Plusieurs fois adapté au cinéma, le roman relate la vie d'une jeune orpheline, Jerusha Abbott, au cours de ses années à l'université, à travers les lettres qu'elle écrit à son bienfaiteur, un homme riche qu'elle n'a jamais vu.
 </t>
@@ -514,7 +526,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Aux États-Unis, au tout début du XXe siècle. Jerusha Abbott vit pratiquement depuis sa naissance à John Grier Home, un orphelinat privé, où les enfants sont totalement dépendants de la charité des donateurs, et ont pour seuls vêtements ceux dont d'autres ne veulent plus. Le prénom inhabituel de Jerusha a été choisi par la directrice de l'orphelinat d'après une pierre tombale qu'elle avait vue. La jeune orpheline, qui déteste ce prénom, utilise en son lieu et place celui de « Joujou » (traduit « Judy » dans les récentes versions françaises). Quant à son nom, il a été trouvé à partir d'un annuaire téléphonique. Maintenant qu'elle a dix-sept ans et terminé son éducation, son avenir est incertain, car on ne la garde à l'orphelinat où elle a été élevée que parce qu'elle y travaille en s'occupant des « quatre-vingt-dix-sept petits orphelins ».
 Un certain premier mercredi du mois (jour « abominable » de la visite mensuelle des administrateurs de l'orphelinat), l'austère directrice de l'établissement, Mme Lippett, informe Judy que l'un des administrateurs offre de lui payer ses études à l'université. Il a discuté avec les anciens professeurs de la jeune fille, et il lui semble qu'elle a le potentiel pour devenir un excellent écrivain. Il paiera non seulement ses études, mais lui donnera également une pension mensuelle généreuse ; cependant, en contrepartie, Judy devra lui écrire une lettre tous les mois, car, pense-t-il, le fait d'écrire des lettres est un entrainement utile pour un futur écrivain. Mais, lui est-il précisé, elle ne connaîtra jamais son identité, elle devra adresser ses lettres à « M. John Smith », et il ne répondra jamais…
@@ -549,9 +563,11 @@
           <t>Suite au roman</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'auteur a écrit en 1915 une suite au roman : Mon ennemi chéri (Dear Enemy), paru en France en 1927[2], dans lequel on retrouve Judy et son bienfaiteur, ainsi que le personnage de Sallie McBride.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'auteur a écrit en 1915 une suite au roman : Mon ennemi chéri (Dear Enemy), paru en France en 1927, dans lequel on retrouve Judy et son bienfaiteur, ainsi que le personnage de Sallie McBride.
 </t>
         </is>
       </c>
@@ -580,7 +596,9 @@
           <t>Dédicace</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le roman est dédié « À toi/à vous » (« To You »). De nos jours, on considère que le livre s'adresse à un public d'adolescents ou de jeunes adultes, voire d'enfants, mais à l'époque de sa publication, il appartenait à un type d'ouvrages destinés aux jeunes filles, plus particulièrement les jeunes filles poursuivant des études supérieures (« college girls ») aux prises avec les problèmes des années qui suivent le lycée, tels que la vie universitaire, la carrière à envisager, et… le mariage.
 Dans le vaste genre littéraire du roman d’éducation, cette catégorie de livres correspond à la vision du monde plutôt traditionnelle d'avant la première guerre mondiale, bien différente de la conception de l'adolescence de la fin du XXe et du début du XXIe siècle. Cette catégorie comprend d'autres ouvrages de l'époque tels que ceux de l'Américaine Louisa May Alcott (dont le très célèbre Les Quatre Filles du docteur March, 1868-1869) et de la Canadienne Lucy Maud Montgomery (Anne… la maison aux pignons verts).
@@ -614,14 +632,15 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Au cinéma
-1919 : Papa longues jambes, film américain muet de Marshall Neilan.
+          <t>Au cinéma</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1919 : Papa longues jambes, film américain muet de Marshall Neilan.
 1931 : Papa longues jambes, film américain de Alfred Santell.
-1955 : Papa longues jambes, film musical américain de Jean Negulesco.
-À la télévision
-1990 : Papa longues jambes, série d'animation japonaise.
-Bande dessinée
-Une version manhwa écrite et dessinée par Hyoung-Jun Kim est sortie en 2004. En France, elle est parue aux Éditions Saphira en 2006.</t>
+1955 : Papa longues jambes, film musical américain de Jean Negulesco.</t>
         </is>
       </c>
     </row>
@@ -646,10 +665,84 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>À la télévision</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1990 : Papa longues jambes, série d'animation japonaise.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Papa_longues_jambes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Papa_longues_jambes</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Bande dessinée</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Une version manhwa écrite et dessinée par Hyoung-Jun Kim est sortie en 2004. En France, elle est parue aux Éditions Saphira en 2006.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Papa_longues_jambes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Papa_longues_jambes</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Éditions françaises</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>(liste non exhaustive)
 1918 : Papa Faucheux (roman d'une Américaine), traduction de Frances Keyzer, éditions Pierre Lafitte, Paris, 213 p.
@@ -665,31 +758,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Papa_longues_jambes</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Papa_longues_jambes</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Papa_longues_jambes</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Papa_longues_jambes</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Bibliothèque nationale de France</t>
         </is>
